--- a/src/main/shoot_model/DataPts.xlsx
+++ b/src/main/shoot_model/DataPts.xlsx
@@ -8,35 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishiyengar/AKRS_Apps/Robo/Crescendo2024/src/main/shoot_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2994E0D1-DB0B-7B4E-80EE-177D253D78F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B09DE3-AF48-C24E-9D36-1863DD9BE10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="19120" windowHeight="17440" xr2:uid="{84FFF492-AC58-9E46-ACA0-4E4AF797DEDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$2:$D$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$K$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$K$2:$K$11</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$D$2:$D$11</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$K$1</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$K$2:$K$11</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ty</t>
   </si>
@@ -71,15 +49,12 @@
   <si>
     <t>theta</t>
   </si>
-  <si>
-    <t>dist</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +66,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,200 +416,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0382AEAB-B36F-9541-8466-A87ECB72D1D9}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>-5.5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.19</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>80</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>-1.5100000000000001E-2</v>
       </c>
-      <c r="K2">
-        <v>108</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>5.5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.24</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K3">
-        <v>52</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>-13.8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0.05</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>95</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>-3.6999999999999998E-2</v>
       </c>
-      <c r="K4">
-        <v>179</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>-6.2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>70</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>-0.02</v>
       </c>
-      <c r="K5" s="1">
-        <v>58</v>
-      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.21</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>60</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>66</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>8.6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0.31</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>60</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.02</v>
       </c>
-      <c r="K7">
-        <v>61</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.33</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>60</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.03</v>
       </c>
-      <c r="K8">
-        <v>43</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>-7.3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0.12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>75</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>-2.75E-2</v>
       </c>
-      <c r="K9">
-        <v>130</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>-1.8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0.19</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>75</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="K10">
-        <v>95</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>-6.4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0.13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>90</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>-2.2499999999999999E-2</v>
       </c>
-      <c r="K11">
-        <v>124</v>
-      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>-3.2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>6.53</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>-8.51</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>80</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>-11.61</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.108</v>
+      </c>
+      <c r="C17" s="2">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>-12.34</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>-12.41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>-3.3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>80</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>-0.11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.248</v>
+      </c>
+      <c r="C21" s="2">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/shoot_model/DataPts.xlsx
+++ b/src/main/shoot_model/DataPts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishiyengar/AKRS_Apps/Robo/Crescendo2024/src/main/shoot_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B09DE3-AF48-C24E-9D36-1863DD9BE10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403106F0-8BCE-3240-86B7-ACC7AEB747A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="19120" windowHeight="17440" xr2:uid="{84FFF492-AC58-9E46-ACA0-4E4AF797DEDA}"/>
   </bookViews>
@@ -54,16 +54,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,10 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,314 +407,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0382AEAB-B36F-9541-8466-A87ECB72D1D9}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>-4.1399999999999997</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>70</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>-3.2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>6.53</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>-8.51</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>-11.61</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="C7" s="1">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>-12.34</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>-12.41</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>90</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>-3.3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>80</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>-0.11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.248</v>
+      </c>
+      <c r="C11" s="1">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>-5.5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B13" s="1">
         <v>0.19</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C13" s="1">
         <v>80</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D13" s="1">
         <v>-1.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>5.5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B14" s="1">
         <v>0.24</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C14" s="1">
         <v>50</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D14" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>-13.8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B15" s="1">
         <v>0.05</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C15" s="1">
         <v>95</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D15" s="1">
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>-6.2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B16" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C16" s="1">
         <v>70</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D16" s="1">
         <v>-0.02</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B17" s="1">
         <v>0.21</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C17" s="1">
         <v>60</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>8.6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B18" s="1">
         <v>0.31</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C18" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D18" s="1">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>16.600000000000001</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B19" s="1">
         <v>0.33</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C19" s="1">
         <v>60</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D19" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>-7.3</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B20" s="1">
         <v>0.12</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C20" s="1">
         <v>75</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D20" s="1">
         <v>-2.75E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>-1.8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B21" s="1">
         <v>0.19</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C21" s="1">
         <v>75</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D21" s="1">
         <v>-1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>-6.4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B22" s="1">
         <v>0.13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C22" s="1">
         <v>90</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D22" s="1">
         <v>-2.2499999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>-4.1399999999999997</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C12" s="2">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>-3.2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>70</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>6.53</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="C14" s="2">
-        <v>70</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>1.28</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C15" s="2">
-        <v>70</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>-8.51</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>80</v>
-      </c>
-      <c r="D16" s="2">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>-11.61</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.108</v>
-      </c>
-      <c r="C17" s="2">
-        <v>90</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-4.1500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>-12.34</v>
-      </c>
-      <c r="B18" s="2">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>90</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>-12.41</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>90</v>
-      </c>
-      <c r="D19" s="2">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>-3.3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>80</v>
-      </c>
-      <c r="D20" s="2">
-        <v>-2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>-0.11</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.248</v>
-      </c>
-      <c r="C21" s="2">
-        <v>70</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/shoot_model/DataPts.xlsx
+++ b/src/main/shoot_model/DataPts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishiyengar/AKRS_Apps/Robo/Crescendo2024/src/main/shoot_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403106F0-8BCE-3240-86B7-ACC7AEB747A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0A26B1-2EF5-C447-912D-2D35773FBD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="19120" windowHeight="17440" xr2:uid="{84FFF492-AC58-9E46-ACA0-4E4AF797DEDA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19120" windowHeight="17440" xr2:uid="{84FFF492-AC58-9E46-ACA0-4E4AF797DEDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ty</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>theta</t>
+  </si>
+  <si>
+    <t>ty is divided by 100</t>
+  </si>
+  <si>
+    <t>per out is divided by 100</t>
   </si>
 </sst>
 </file>
@@ -407,15 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0382AEAB-B36F-9541-8466-A87ECB72D1D9}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,289 +438,289 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>-4.1399999999999997</v>
+        <v>-4.1399999999999999E-2</v>
       </c>
       <c r="B2" s="1">
         <v>0.2</v>
       </c>
       <c r="C2" s="1">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D2" s="1">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>-3.2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="B3" s="1">
         <v>0.2</v>
       </c>
       <c r="C3" s="1">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D3" s="1">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>6.53</v>
+        <v>6.5299999999999997E-2</v>
       </c>
       <c r="B4" s="1">
         <v>0.31</v>
       </c>
       <c r="C4" s="1">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1.28</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="B5" s="1">
         <v>0.28999999999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D5" s="1">
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>-8.51</v>
+        <v>-8.5099999999999995E-2</v>
       </c>
       <c r="B6" s="1">
         <v>0.13100000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="1">
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>-11.61</v>
+        <v>-0.11609999999999999</v>
       </c>
       <c r="B7" s="1">
         <v>0.108</v>
       </c>
       <c r="C7" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="D7" s="1">
         <v>-4.1500000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>-12.34</v>
+        <v>-0.1234</v>
       </c>
       <c r="B8" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="D8" s="1">
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>-12.41</v>
+        <v>-0.1241</v>
       </c>
       <c r="B9" s="1">
         <v>0.1</v>
       </c>
       <c r="C9" s="1">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="D9" s="1">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>-3.3</v>
+        <v>-3.3000000000000002E-2</v>
       </c>
       <c r="B10" s="1">
         <v>0.2</v>
       </c>
       <c r="C10" s="1">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="D10" s="1">
         <v>-2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>-0.11</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="B11" s="1">
         <v>0.248</v>
       </c>
       <c r="C11" s="1">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D11" s="1">
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>-5.5</v>
+        <v>5.5E-2</v>
       </c>
       <c r="B13" s="1">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="C13" s="1">
-        <v>80</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="1">
-        <v>-1.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>5.5</v>
+        <v>-0.13800000000000001</v>
       </c>
       <c r="B14" s="1">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="C14" s="1">
-        <v>50</v>
+        <v>0.95</v>
       </c>
       <c r="D14" s="1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>-13.8</v>
+        <v>-6.2E-2</v>
       </c>
       <c r="B15" s="1">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>95</v>
+        <v>0.7</v>
       </c>
       <c r="D15" s="1">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>-6.2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="B16" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="C16" s="1">
-        <v>70</v>
+        <v>0.6</v>
       </c>
       <c r="D16" s="1">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>4.5999999999999996</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="B17" s="1">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="C17" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>8.6</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="B18" s="1">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="C18" s="1">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="D18" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>16.600000000000001</v>
+        <v>-7.2999999999999995E-2</v>
       </c>
       <c r="B19" s="1">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="C19" s="1">
-        <v>60</v>
+        <v>0.75</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03</v>
+        <v>-2.75E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>-7.3</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="B20" s="1">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="C20" s="1">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="D20" s="1">
-        <v>-2.75E-2</v>
+        <v>-1.7500000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>-1.8</v>
+        <v>-6.4000000000000001E-2</v>
       </c>
       <c r="B21" s="1">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="C21" s="1">
-        <v>75</v>
+        <v>0.9</v>
       </c>
       <c r="D21" s="1">
-        <v>-1.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>-6.4</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="C22" s="1">
-        <v>90</v>
-      </c>
-      <c r="D22" s="1">
         <v>-2.2499999999999999E-2</v>
       </c>
     </row>
